--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeapThoughtProjectWS\FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>To</t>
   </si>
@@ -48,28 +48,43 @@
     <t>Anupama D. Thumrugoti</t>
   </si>
   <si>
+    <t>TxType</t>
+  </si>
+  <si>
+    <t>UnTick</t>
+  </si>
+  <si>
+    <t>Action-Level2</t>
+  </si>
+  <si>
+    <t>ForwardTo</t>
+  </si>
+  <si>
+    <t>Action-Level3</t>
+  </si>
+  <si>
+    <t>IssueReason</t>
+  </si>
+  <si>
     <t>Correspondence</t>
   </si>
   <si>
-    <t>TxType</t>
-  </si>
-  <si>
-    <t>UnTick</t>
-  </si>
-  <si>
-    <t>Action-Level2</t>
-  </si>
-  <si>
-    <t>ForwardTo</t>
-  </si>
-  <si>
-    <t>Action-Level3</t>
-  </si>
-  <si>
-    <t>IssueReason</t>
-  </si>
-  <si>
     <t>Issued for Information</t>
+  </si>
+  <si>
+    <t>AttachDocuments</t>
+  </si>
+  <si>
+    <t>AttachDocumentName</t>
+  </si>
+  <si>
+    <t>AttachSupportDocuments</t>
+  </si>
+  <si>
+    <t>AttachSupportDocumentName</t>
+  </si>
+  <si>
+    <t>ReviewDocument</t>
   </si>
 </sst>
 </file>
@@ -470,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,14 +496,19 @@
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,25 +522,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -531,15 +566,15 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,9 +27,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Shaik Khaleel</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>New Transmittal from Automation</t>
   </si>
   <si>
-    <t>Anupama D. Thumrugoti</t>
-  </si>
-  <si>
     <t>TxType</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>ReviewDocument</t>
+  </si>
+  <si>
+    <t>AutoTestAdmin</t>
+  </si>
+  <si>
+    <t>AutoTestUser</t>
   </si>
 </sst>
 </file>
@@ -516,66 +516,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_Sprint1\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>To</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>AutoTestUser</t>
+  </si>
+  <si>
+    <t>LATFLD-37</t>
+  </si>
+  <si>
+    <t>Document Register</t>
+  </si>
+  <si>
+    <t>Test 1 ta.docx</t>
+  </si>
+  <si>
+    <t>LATFLD-3</t>
+  </si>
+  <si>
+    <t>RefID</t>
   </si>
 </sst>
 </file>
@@ -485,96 +500,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>To</t>
   </si>
@@ -100,13 +100,16 @@
   </si>
   <si>
     <t>RefID</t>
+  </si>
+  <si>
+    <t>Mess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -121,6 +124,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,9 +160,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,11 +512,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -518,15 +528,16 @@
     <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -567,16 +578,19 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -598,11 +612,15 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>1 of 2 Message for New transmittal</v>
+      </c>
+      <c r="N2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -636,13 +654,17 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="str">
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <v>2 of 2 Message for New transmittal</v>
+      </c>
+      <c r="N3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITWS_Fluid_S5_NR\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N2)</f>
+        <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
         <v>2 of 2 Message for New transmittal</v>
       </c>
       <c r="N3" t="s">

--- a/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
+++ b/Fulcrum_FluidTX_Trunk/src/com/proj/suiteTRANSMITTALS/testdata/TransmittalsTestData-IssuedForInformation.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS_Sprint5\Fulcrum_FluidTX_Trunk\src\com\proj\suiteTRANSMITTALS\testdata\"/>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Transmittals_New" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>To</t>
   </si>
@@ -81,19 +84,7 @@
     <t>ReviewDocument</t>
   </si>
   <si>
-    <t>AutoTestAdmin</t>
-  </si>
-  <si>
-    <t>AutoTestUser</t>
-  </si>
-  <si>
     <t>LATFLD-37</t>
-  </si>
-  <si>
-    <t>Document Register</t>
-  </si>
-  <si>
-    <t>Test 1 ta.docx</t>
   </si>
   <si>
     <t>LATFLD-3</t>
@@ -181,6 +172,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="user_credentials"/>
+      <sheetName val="DocumentDetails"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>AutoTestAdmin</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>AutoTestUser</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Document Register</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Test 1 ta.docx</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -578,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -592,13 +625,15 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
+      <c r="B2" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -622,13 +657,15 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
         <v>21</v>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]user_credentials!$B$3</f>
+        <v>AutoTestAdmin</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]user_credentials!$B$4</f>
+        <v>AutoTestUser</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -642,17 +679,21 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+      <c r="H3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="I3" t="str">
+        <f>[1]DocumentDetails!$B$3</f>
+        <v>Test 1 ta.docx</v>
+      </c>
+      <c r="J3" t="str">
+        <f>[1]DocumentDetails!$B$2</f>
+        <v>Document Register</v>
+      </c>
+      <c r="K3" t="str">
+        <f>[1]DocumentDetails!$B$4</f>
+        <v>Test 1 ta.docx</v>
       </c>
       <c r="M3" s="2" t="str">
         <f>CONCATENATE(ROW()-1," of ",COUNTA(A2:A100)," ",N3)</f>
@@ -666,5 +707,8 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>